--- a/Chandrashekaran-annotations/BLDR_Q2_2019.xlsx
+++ b/Chandrashekaran-annotations/BLDR_Q2_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C465C95E-2200-4863-B195-CA2FA650F760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63919B25-75A7-4D34-A319-9693266526D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -711,8 +711,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,6 +776,24 @@
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -789,6 +808,24 @@
       <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -803,6 +840,24 @@
       <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
@@ -817,6 +872,24 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -831,6 +904,24 @@
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -845,6 +936,24 @@
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -859,6 +968,24 @@
       <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
@@ -873,6 +1000,24 @@
       <c r="D9" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -887,6 +1032,24 @@
       <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
@@ -901,6 +1064,24 @@
       <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -915,6 +1096,24 @@
       <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -929,6 +1128,24 @@
       <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>1</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -943,6 +1160,24 @@
       <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="2">
+        <v>2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -957,6 +1192,24 @@
       <c r="D15" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -971,8 +1224,26 @@
       <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -985,8 +1256,26 @@
       <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -999,8 +1288,26 @@
       <c r="D18" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1013,8 +1320,26 @@
       <c r="D19" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1027,8 +1352,26 @@
       <c r="D20" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>2</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>1</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1041,8 +1384,26 @@
       <c r="D21" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>2</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1055,8 +1416,26 @@
       <c r="D22" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>2</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2">
+        <v>1</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1</v>
+      </c>
+      <c r="J22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1069,8 +1448,26 @@
       <c r="D23" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>2</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2">
+        <v>1</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1</v>
+      </c>
+      <c r="J23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
@@ -1083,8 +1480,26 @@
       <c r="D24" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>2</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2">
+        <v>1</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -1097,8 +1512,26 @@
       <c r="D25" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="E25" s="2">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2">
+        <v>1</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -1111,8 +1544,26 @@
       <c r="D26" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -1125,8 +1576,26 @@
       <c r="D27" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <v>1</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1139,8 +1608,26 @@
       <c r="D28" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>2</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1</v>
+      </c>
+      <c r="H28" s="2">
+        <v>1</v>
+      </c>
+      <c r="I28" s="2">
+        <v>2</v>
+      </c>
+      <c r="J28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1153,8 +1640,26 @@
       <c r="D29" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1</v>
+      </c>
+      <c r="G29" s="2">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -1167,8 +1672,26 @@
       <c r="D30" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2">
+        <v>1</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -1181,8 +1704,26 @@
       <c r="D31" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2">
+        <v>1</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1195,8 +1736,26 @@
       <c r="D32" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2">
+        <v>1</v>
+      </c>
+      <c r="I32" s="2">
+        <v>1</v>
+      </c>
+      <c r="J32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -1209,8 +1768,26 @@
       <c r="D33" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2">
+        <v>2</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2">
+        <v>1</v>
+      </c>
+      <c r="I33" s="2">
+        <v>1</v>
+      </c>
+      <c r="J33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
@@ -1223,8 +1800,26 @@
       <c r="D34" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2">
+        <v>1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2</v>
+      </c>
+      <c r="J34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1237,8 +1832,26 @@
       <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2">
+        <v>2</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>1</v>
+      </c>
+      <c r="I35" s="2">
+        <v>1</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -1251,8 +1864,26 @@
       <c r="D36" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2">
+        <v>2</v>
+      </c>
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
@@ -1265,8 +1896,26 @@
       <c r="D37" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2">
+        <v>2</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -1279,8 +1928,26 @@
       <c r="D38" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2</v>
+      </c>
+      <c r="J38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -1293,8 +1960,26 @@
       <c r="D39" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2">
+        <v>1</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -1307,8 +1992,26 @@
       <c r="D40" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2">
+        <v>1</v>
+      </c>
+      <c r="I40" s="2">
+        <v>1</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -1321,8 +2024,26 @@
       <c r="D41" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
+      <c r="I41" s="2">
+        <v>2</v>
+      </c>
+      <c r="J41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>84</v>
       </c>
@@ -1335,8 +2056,26 @@
       <c r="D42" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>96</v>
       </c>
@@ -1349,8 +2088,26 @@
       <c r="D43" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2">
+        <v>2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>1</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>96</v>
       </c>
@@ -1363,8 +2120,26 @@
       <c r="D44" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>96</v>
       </c>
@@ -1377,8 +2152,26 @@
       <c r="D45" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>96</v>
       </c>
@@ -1391,8 +2184,26 @@
       <c r="D46" s="2" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2">
+        <v>2</v>
+      </c>
+      <c r="G46" s="2">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2">
+        <v>1</v>
+      </c>
+      <c r="I46" s="2">
+        <v>1</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>96</v>
       </c>
@@ -1405,8 +2216,26 @@
       <c r="D47" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2</v>
+      </c>
+      <c r="H47" s="2">
+        <v>2</v>
+      </c>
+      <c r="I47" s="2">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>96</v>
       </c>
@@ -1418,6 +2247,24 @@
       </c>
       <c r="D48" s="2" t="s">
         <v>107</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
+      </c>
+      <c r="G48" s="2">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2">
+        <v>1</v>
+      </c>
+      <c r="I48" s="2">
+        <v>1</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Chandrashekaran-annotations/BLDR_Q2_2019.xlsx
+++ b/Chandrashekaran-annotations/BLDR_Q2_2019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vm056257\Downloads\Working\PEBU\ML\SubjECTive-QA\Chandrashekaran-annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63919B25-75A7-4D34-A319-9693266526D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F03141F-E0FC-4B7A-B386-691FC32471BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="106">
   <si>
     <t>Asker</t>
   </si>
@@ -302,12 +302,6 @@
   </si>
   <si>
     <t>Yes, I don't I don't have a handy have an estimate off the top my head. I would say high single digits, maybe double or write double lines probably in their 8 to 10.</t>
-  </si>
-  <si>
-    <t>Okay, great. Thanks for taking my question.</t>
-  </si>
-  <si>
-    <t>Go back and follow up. We can follow up.</t>
   </si>
   <si>
     <t>Trey Grooms</t>
@@ -709,29 +703,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="88.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="88.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="88.140625" style="2"/>
+    <col min="10" max="10" width="13.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="88.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -763,7 +757,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -795,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -827,7 +821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -859,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
@@ -891,7 +885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -923,7 +917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -955,7 +949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -987,7 +981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
@@ -1051,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1083,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
@@ -1115,7 +1109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>33</v>
       </c>
@@ -1147,7 +1141,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>33</v>
       </c>
@@ -1179,7 +1173,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="144" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -1243,7 +1237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -1275,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1307,7 +1301,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -1339,7 +1333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>50</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>50</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1435,7 +1429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>50</v>
       </c>
@@ -1467,7 +1461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
@@ -1499,7 +1493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>57</v>
       </c>
@@ -1531,7 +1525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -1563,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>62</v>
       </c>
@@ -1595,7 +1589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>62</v>
       </c>
@@ -1627,7 +1621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1659,7 +1653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="210" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -1691,7 +1685,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>62</v>
       </c>
@@ -1723,7 +1717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1755,7 +1749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -1787,7 +1781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>75</v>
       </c>
@@ -1819,7 +1813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -1851,7 +1845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -1883,7 +1877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>84</v>
       </c>
@@ -1915,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -1947,7 +1941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -1979,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>84</v>
       </c>
@@ -2011,7 +2005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -2043,41 +2037,41 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="2">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2">
+        <v>2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="2">
-        <v>1</v>
-      </c>
-      <c r="F42" s="2">
-        <v>1</v>
-      </c>
-      <c r="G42" s="2">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2">
-        <v>1</v>
-      </c>
-      <c r="I42" s="2">
-        <v>1</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>14</v>
@@ -2092,13 +2086,13 @@
         <v>2</v>
       </c>
       <c r="F43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="2">
         <v>1</v>
       </c>
       <c r="H43" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2">
         <v>1</v>
@@ -2107,9 +2101,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>14</v>
@@ -2133,15 +2127,15 @@
         <v>1</v>
       </c>
       <c r="I44" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>14</v>
@@ -2156,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="2">
         <v>1</v>
@@ -2165,15 +2159,15 @@
         <v>1</v>
       </c>
       <c r="I45" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>14</v>
@@ -2188,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="F46" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H46" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="2">
         <v>1</v>
@@ -2203,67 +2197,35 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E47" s="2">
         <v>2</v>
       </c>
       <c r="F47" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2">
         <v>1</v>
       </c>
       <c r="J47" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E48" s="2">
-        <v>2</v>
-      </c>
-      <c r="F48" s="2">
-        <v>2</v>
-      </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
-      <c r="H48" s="2">
-        <v>1</v>
-      </c>
-      <c r="I48" s="2">
-        <v>1</v>
-      </c>
-      <c r="J48" s="2">
         <v>2</v>
       </c>
     </row>
